--- a/biology/Zoologie/Heliconius/Heliconius.xlsx
+++ b/biology/Zoologie/Heliconius/Heliconius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius est un genre de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae. Ils sont originaires d'Amérique tropicale et subtropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les imagos des Heliconius sont de grands papillons aux couleurs vives et aux motifs très variables, y compris au sein d'une même espèce. Leurs différentes formes sont impliquées dans des anneaux de mimétisme mullérien, dans lesquels plusieurs espèces vivant en un même endroit voient leur apparence converger[1]. Pour cette raison, ces espèces font l'objet de nombreuses recherches sur le mimétisme et la spéciation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les imagos des Heliconius sont de grands papillons aux couleurs vives et aux motifs très variables, y compris au sein d'une même espèce. Leurs différentes formes sont impliquées dans des anneaux de mimétisme mullérien, dans lesquels plusieurs espèces vivant en un même endroit voient leur apparence converger. Pour cette raison, ces espèces font l'objet de nombreuses recherches sur le mimétisme et la spéciation.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes hôtes de leurs chenilles sont des passiflores.
 </t>
@@ -573,9 +589,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heliconius sont originaires de l'écozone néotropicale, plus précisément des régions tropicales et subtropicales de l'Amérique, sur une aire s'étendant du Sud des États-Unis au Brésil en passant par l'Amérique centrale et les Antilles. La diversité spécifique est maximale dans le bassin amazonien[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heliconius sont originaires de l'écozone néotropicale, plus précisément des régions tropicales et subtropicales de l'Amérique, sur une aire s'étendant du Sud des États-Unis au Brésil en passant par l'Amérique centrale et les Antilles. La diversité spécifique est maximale dans le bassin amazonien.
 </t>
         </is>
       </c>
@@ -604,22 +622,24 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Très diversifié, ce genre comprend environ 45 espèces[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Très diversifié, ce genre comprend environ 45 espèces :
 Heliconius antiochus (Linnaeus, 1767)
-Heliconius aoede (Hübner, [1813])
-Heliconius astraea Staudinger, [1897]
-Heliconius atthis Doubleday, [1847]
+Heliconius aoede (Hübner, )
+Heliconius astraea Staudinger, 
+Heliconius atthis Doubleday, 
 Heliconius besckei Ménétriès, 1857
-Heliconius burneyi (Hübner, [1831])
+Heliconius burneyi (Hübner, )
 Heliconius charithonia (Linnaeus, 1767)
-Heliconius clysonymus Latreille, [1817]
+Heliconius clysonymus Latreille, 
 Heliconius congener Weymer, 1890
 Heliconius cydno Doubleday, 1847
-Heliconius demeter Staudinger, [1897]
+Heliconius demeter Staudinger, 
 Heliconius doris (Linnaeus, 1771)
-Heliconius egeria (Cramer, [1775])
+Heliconius egeria (Cramer, )
 Heliconius eleuchia Hewitson, 1854
 Heliconius elevatus Nöldner, 1901
 Heliconius erato (Linnaeus, 1764)
@@ -632,16 +652,16 @@
 Heliconius heurippa Hewitson, 1854
 Heliconius hierax Hewitson, 1869
 Heliconius himera Hewitson, 1867
-Heliconius hortense Guérin-Méneville, [1844]
-Heliconius ismenius Latreille, [1817]
+Heliconius hortense Guérin-Méneville, 
+Heliconius ismenius Latreille, 
 Heliconius lalitae Brévignon, 1996
 Heliconius leucadia Bates, 1862
 Heliconius luciana Lichy, 1960
 Heliconius melpomene (Linnaeus, 1758)
-Heliconius metharme (Erichson, [1849])
+Heliconius metharme (Erichson, )
 Heliconius metis (Moreira &amp; Mielke, 2010)
-Heliconius nattereri C. &amp; R. Felder, [1865]
-Heliconius numata (Cramer, [1780])
+Heliconius nattereri C. &amp; R. Felder, 
+Heliconius numata (Cramer, )
 Heliconius pardalinus Bates, 1862
 Heliconius peruvianus C. &amp; R. Felder, 1859
 Heliconius ricini (Linnaeus, 1758)
@@ -679,24 +699,26 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Heliconius a été décrit par l'entomologiste polonais Jan Krzysztof Kluk en 1780[3],[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Heliconius a été décrit par l'entomologiste polonais Jan Krzysztof Kluk en 1780,.
 L'espèce type pour le genre est Heliconius charithonia (Linnaeus, 1767).
-Le genre a de nombreux synonymes[2] :
-Migonitis Hübner, 1816[4]
+Le genre a de nombreux synonymes :
+Migonitis Hübner, 1816
 Sunias Hübner, 1816
-Sicyonia Hübner, 1816[5]
+Sicyonia Hübner, 1816
 Ajantis Hübner, 1816
 Apostraphia Hübner, 1816
 Heliconia Latreille, 1818
 Laparus Billberg, 1820
 Crenis Hübner, 1821
-Phlogris Hübner, [1825][6]
+Phlogris Hübner, 
 Podalirius Gistel, 1848
-Blanchardia Buchecker, [1880][7]
+Blanchardia Buchecker, 
 Neruda Turner, 1976
-Les anciens genres Laparus (qui avait pour seule espèce H. doris) et Neruda (qui regroupait H. aoede, H. godmani, H. metharme et H. metis) ont récemment été mis en synonymie avec Heliconius à la suite d'études de phylogénétique moléculaire[8].
+Les anciens genres Laparus (qui avait pour seule espèce H. doris) et Neruda (qui regroupait H. aoede, H. godmani, H. metharme et H. metis) ont récemment été mis en synonymie avec Heliconius à la suite d'études de phylogénétique moléculaire.
 </t>
         </is>
       </c>
